--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1415.675388601381</v>
+        <v>346.4975775878918</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.92538860137978</v>
+        <v>54.4975775878919</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.98279108423719</v>
+        <v>6.589674650542316</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.98279108423719</v>
+        <v>6.589674650542316</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>849.2100000000006</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.5400000000001</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,31 +609,9 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.31430901573738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -945,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.957912867326328</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.68883997447806</v>
+        <v>34.68569098426262</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.68569098426262</v>
+        <v>40.98279108423719</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.98279108423719</v>
+        <v>40.68883997447806</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1048,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1062,40 +1040,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>110.9400000000002</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>104.1450000000002</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>108.7900000000002</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.8600000000002</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>112.4700000000002</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>164.6049999999995</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>164.35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>149.3149999999995</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>160.8549999999995</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>163.7349999999995</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>65.61000000000051</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>67.42000000000051</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.04500000000051</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.6350000000005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>110.9400000000002</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>104.1450000000002</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>108.7900000000002</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.8600000000002</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>112.4700000000002</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000003</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000003</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.2400000000003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000003</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000003</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>164.6049999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>164.35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>149.3149999999995</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>160.8549999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>163.7349999999995</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.94000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.790000000000205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.86000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4700000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6100000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5950000000003</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000029</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000029</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>64.60499999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>64.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>49.31499999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>60.85499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>63.7349999999995</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2056,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,10 +2130,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2191,10 +2141,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2202,10 +2152,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2213,133 +2163,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
